--- a/txsb_top_ac_padcap_tsmc2ff_meas.xlsx
+++ b/txsb_top_ac_padcap_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="73">
   <si>
     <t>Process</t>
   </si>
@@ -148,10 +148,13 @@
     <t>0.788</t>
   </si>
   <si>
+    <t>0.825</t>
+  </si>
+  <si>
     <t>tsmc2ff (2)</t>
   </si>
   <si>
-    <t>-40</t>
+    <t>-20</t>
   </si>
   <si>
     <t>tsmc2ff (3)</t>
@@ -691,10 +694,10 @@
         <v>31</v>
       </c>
       <c r="R2">
-        <v>1335.68</v>
+        <v>141.836</v>
       </c>
       <c r="S2">
-        <v>224.128</v>
+        <v>136.464</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -744,21 +747,21 @@
         <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
       </c>
       <c r="R3">
-        <v>1169</v>
+        <v>145.231</v>
       </c>
       <c r="S3">
-        <v>210.744</v>
+        <v>139.229</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -788,10 +791,10 @@
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
         <v>43</v>
@@ -803,21 +806,21 @@
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
         <v>31</v>
       </c>
       <c r="R4">
-        <v>1169</v>
+        <v>145.231</v>
       </c>
       <c r="S4">
-        <v>210.744</v>
+        <v>139.229</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -853,30 +856,30 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
         <v>31</v>
       </c>
       <c r="R5">
-        <v>901.3</v>
+        <v>146.546</v>
       </c>
       <c r="S5">
-        <v>187.785</v>
+        <v>140.104</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -906,63 +909,63 @@
         <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
       <c r="R6">
-        <v>901.3</v>
+        <v>146.546</v>
       </c>
       <c r="S6">
-        <v>187.785</v>
+        <v>140.104</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
         <v>42</v>
@@ -980,54 +983,54 @@
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R7">
-        <v>1614.22</v>
+        <v>137.318</v>
       </c>
       <c r="S7">
-        <v>249.706</v>
+        <v>133.537</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
@@ -1039,48 +1042,48 @@
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R8">
-        <v>1614.22</v>
+        <v>137.318</v>
       </c>
       <c r="S8">
-        <v>249.706</v>
+        <v>133.537</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
         <v>42</v>
@@ -1089,84 +1092,84 @@
         <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R9">
-        <v>1386.64</v>
+        <v>138.572</v>
       </c>
       <c r="S9">
-        <v>226.912</v>
+        <v>134.583</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R10">
-        <v>1386.64</v>
+        <v>138.572</v>
       </c>
       <c r="S10">
-        <v>226.912</v>
+        <v>134.583</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1">
@@ -1230,29 +1233,29 @@
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1">
       <c r="Q12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1">
-        <v>901.3</v>
+        <v>137.318</v>
       </c>
       <c r="S12" s="1">
-        <v>187.785</v>
+        <v>133.537</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1">
       <c r="Q13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1">
-        <v>1614.22</v>
+        <v>146.546</v>
       </c>
       <c r="S13" s="1">
-        <v>249.706</v>
+        <v>140.104</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="Q14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1">
         <v>300000</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1">
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -1274,45 +1277,45 @@
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="Q16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="17:19" s="1" customFormat="1">
       <c r="Q17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="17:19" s="1" customFormat="1">
       <c r="Q18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R18" s="1">
-        <v>1275.333333333333</v>
+        <v>141.9077777777778</v>
       </c>
       <c r="S18" s="1">
-        <v>219.3802222222222</v>
+        <v>136.8188888888889</v>
       </c>
     </row>
     <row r="19" spans="17:19" s="1" customFormat="1">
       <c r="Q19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R19" s="1">
-        <v>249.5604665985558</v>
+        <v>3.793355617326983</v>
       </c>
       <c r="S19" s="1">
-        <v>21.39830508748962</v>
+        <v>2.684670782400803</v>
       </c>
     </row>
     <row r="20" spans="17:19" s="1" customFormat="1">
       <c r="Q20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" s="1">
-        <v>19.56825404588781</v>
+        <v>2.673113254769752</v>
       </c>
       <c r="S20" s="1">
-        <v>9.75398095176242</v>
+        <v>1.962207706993611</v>
       </c>
     </row>
     <row r="21" spans="17:19" s="1" customFormat="1"/>
